--- a/file/Book1.xlsx
+++ b/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="441">
   <si>
     <t xml:space="preserve">question </t>
   </si>
@@ -594,6 +594,759 @@
   </si>
   <si>
     <t>Tay trái</t>
+  </si>
+  <si>
+    <t>Đầu đuôi vuông vắn như nhau. Thân chia nhiều đốt rất mau rất đều. Tính tình chân thực đáng yêu. Muốn biết dài ngắn mọi điều có em. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Cái thước kẻ</t>
+  </si>
+  <si>
+    <t>Cái bút chì</t>
+  </si>
+  <si>
+    <t>Cục tẩy</t>
+  </si>
+  <si>
+    <t>Cái bảng</t>
+  </si>
+  <si>
+    <t>Cày trên đồng ruộng trắng phau. Khát xuống uống nước giếng sâu đen ngòm. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Cái cặp sách</t>
+  </si>
+  <si>
+    <t>Quyển vở</t>
+  </si>
+  <si>
+    <t>Cái bút mực</t>
+  </si>
+  <si>
+    <t>Cái bút chì màu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hè về áo đỏ như son. Hè đi thay lá xanh non mượt mà. Bao nhiêu tay toả rộng ra. Như vẫy như đón bạn ta đến trường. Là cây gì?</t>
+  </si>
+  <si>
+    <t>Cây phượng</t>
+  </si>
+  <si>
+    <t>Cây bằng lăng</t>
+  </si>
+  <si>
+    <t>Cây bàng</t>
+  </si>
+  <si>
+    <t>Cây dừa</t>
+  </si>
+  <si>
+    <t>Da trắng muốt. Ruột trắng tinh. Bạn với học sinh. Thích cọ đầu vào bảng. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Cái bút</t>
+  </si>
+  <si>
+    <t>Khăn lau bảng</t>
+  </si>
+  <si>
+    <t>Viên phấn</t>
+  </si>
+  <si>
+    <t>Bằng cái hạt cây. Ba gian nhà đầy còn tràn ra sân. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Đèn dầu</t>
+  </si>
+  <si>
+    <t>Bóng đèn</t>
+  </si>
+  <si>
+    <t>Que diêm</t>
+  </si>
+  <si>
+    <t>Nước</t>
+  </si>
+  <si>
+    <t>Anh mặt đen, anh da trắng. Anh mình mỏng, anh nhọn đầu. Khác nhau mà rất thân nhau. Khi đi khi ở chẳng bao giờ rời. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Bảng và phấn</t>
+  </si>
+  <si>
+    <t>Giấy và bút</t>
+  </si>
+  <si>
+    <t>Giấy và cục tẩy</t>
+  </si>
+  <si>
+    <t>Bảng và bút</t>
+  </si>
+  <si>
+    <t>Hạt gieo tới tấp. Rải đều khắp ruộng đồng. Nhưng hạt gieo chẳng nảy mầm. Để bao hạt khác mừng thầm mọc xanh</t>
+  </si>
+  <si>
+    <t>Hạt rau</t>
+  </si>
+  <si>
+    <t>Hạt cát</t>
+  </si>
+  <si>
+    <t>Hạt mưa</t>
+  </si>
+  <si>
+    <t>Phân bón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thân em xưa ở bụi tre. Mùa đông xếp lại mùa hè mở ra. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Cái quạt giấy</t>
+  </si>
+  <si>
+    <t>Cái chổi rễ</t>
+  </si>
+  <si>
+    <t>Cái rổ tre</t>
+  </si>
+  <si>
+    <t>Không đáp án nào đúng</t>
+  </si>
+  <si>
+    <t>Ao tròn vành vạnh. Nước lạnh như tiền. Con gái như tiên. Trần mình xuống lội</t>
+  </si>
+  <si>
+    <t>Bánh đa</t>
+  </si>
+  <si>
+    <t>Bánh trôi nước</t>
+  </si>
+  <si>
+    <t>Quả hồng ngâm</t>
+  </si>
+  <si>
+    <t>Quả quýt</t>
+  </si>
+  <si>
+    <t>Cái dạng quan anh xấu lạ lùng. Khom lưng uốn gối cả đời cong. Lưỡi to ra sức mà ăn khoét. Đành phải theo đuôi có thẹn không?</t>
+  </si>
+  <si>
+    <t>Cái cuốc</t>
+  </si>
+  <si>
+    <t>Cái cày</t>
+  </si>
+  <si>
+    <t>Cái xẻng</t>
+  </si>
+  <si>
+    <t>Khi gặp Thúy Kiều, Kim Trọng trao cho vật gì làm tin?</t>
+  </si>
+  <si>
+    <t>Dải yếm</t>
+  </si>
+  <si>
+    <t>Miếng Lụa</t>
+  </si>
+  <si>
+    <t>Chiếc trâm cài tóc</t>
+  </si>
+  <si>
+    <t>Chiếc khăn hồng</t>
+  </si>
+  <si>
+    <t>Lịch nào dài nhất</t>
+  </si>
+  <si>
+    <t>Lịch treo tường</t>
+  </si>
+  <si>
+    <t>Lịch bàn</t>
+  </si>
+  <si>
+    <t>Lịch vạn niên</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Con đường dài nhất là đường nào?</t>
+  </si>
+  <si>
+    <t>Đường đời</t>
+  </si>
+  <si>
+    <t>Đường Trường Sơn</t>
+  </si>
+  <si>
+    <t>Đường biên giới</t>
+  </si>
+  <si>
+    <t>Đường quốc lộ</t>
+  </si>
+  <si>
+    <t>Quần rộng nhất là quần gì?</t>
+  </si>
+  <si>
+    <t>Quần soóc</t>
+  </si>
+  <si>
+    <t>Quần đảo</t>
+  </si>
+  <si>
+    <t>Quần đùi</t>
+  </si>
+  <si>
+    <t>Quần thụng</t>
+  </si>
+  <si>
+    <t>Núi nào mà bị chặt ra từng khúc</t>
+  </si>
+  <si>
+    <t>Ngũ Hành Sơn</t>
+  </si>
+  <si>
+    <t>Himalaya</t>
+  </si>
+  <si>
+    <t>Hoàng Liên Sơn</t>
+  </si>
+  <si>
+    <t>Thái Sơn</t>
+  </si>
+  <si>
+    <t>Cái gì bằng cái vung, vùng xuống ao, đào chẳng thấy, lấy chẳng được?</t>
+  </si>
+  <si>
+    <t>Cái vung</t>
+  </si>
+  <si>
+    <t>Cây cầu</t>
+  </si>
+  <si>
+    <t>Bóng mặt trăng</t>
+  </si>
+  <si>
+    <t>Cái thuyền</t>
+  </si>
+  <si>
+    <t>Bỏ ngoài nướng trong, ăn ngoài bỏ trong là gì?</t>
+  </si>
+  <si>
+    <t>Cây mía</t>
+  </si>
+  <si>
+    <t>Củ khoai</t>
+  </si>
+  <si>
+    <t>Bắp ngô</t>
+  </si>
+  <si>
+    <t>Xúc xích</t>
+  </si>
+  <si>
+    <t>Trong 1 cuộc thi chạy, nếu bạn vượt qua người thứ 2, bạn sẽ đứng thứ mấy?</t>
+  </si>
+  <si>
+    <t>Cái gì trong trắng ngoài xanh. Trồng đậu, trồng hành rồi thả heo vào</t>
+  </si>
+  <si>
+    <t>Bánh chưng</t>
+  </si>
+  <si>
+    <t>Bánh đậu xanh</t>
+  </si>
+  <si>
+    <t>Bánh cáy</t>
+  </si>
+  <si>
+    <t>Bánh mì</t>
+  </si>
+  <si>
+    <t>Con trai và con chim khác nhau chủ yếu ở điểm nào</t>
+  </si>
+  <si>
+    <t>Môi trường sống</t>
+  </si>
+  <si>
+    <t>Đôi chân</t>
+  </si>
+  <si>
+    <t>Cái đầu</t>
+  </si>
+  <si>
+    <t>Cái tay</t>
+  </si>
+  <si>
+    <t>Khi Ronaldo thực hiện quả đá phạt đền, anh ta sẽ sút vào đâu?</t>
+  </si>
+  <si>
+    <t>Góc phải</t>
+  </si>
+  <si>
+    <t>Thủ môn</t>
+  </si>
+  <si>
+    <t>Góc trái</t>
+  </si>
+  <si>
+    <t>Trái bóng</t>
+  </si>
+  <si>
+    <t>Con gì mang được miếng gỗ lớn nhưng không mang được hòn sỏi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con cua </t>
+  </si>
+  <si>
+    <t>Con iếm</t>
+  </si>
+  <si>
+    <t>Có một mảnh gỗ cần cắt ra làm 50 miếng. Thời gian để cắt được 1 miếng gỗ là 1 phút. Hỏi nếu cắt liên tục không nghỉ thì bao lâu sẽ cắt xong mảnh gỗ?</t>
+  </si>
+  <si>
+    <t>51 phút</t>
+  </si>
+  <si>
+    <t>48 phút</t>
+  </si>
+  <si>
+    <t>49 phút</t>
+  </si>
+  <si>
+    <t>50 phút</t>
+  </si>
+  <si>
+    <t>Làm sao để cái cân tự cân chính nó</t>
+  </si>
+  <si>
+    <t>Đặt lên cái cân khác</t>
+  </si>
+  <si>
+    <t>Lật ngược cái cân lại</t>
+  </si>
+  <si>
+    <t>Đặt 2 cái cân lên bàn cân</t>
+  </si>
+  <si>
+    <t>Không thể làm được</t>
+  </si>
+  <si>
+    <t>Tôi đi chu du khắp nơi trên thế giới mà tôi vẫn ở nguyên một chỗ. Vậy tôi là ai?</t>
+  </si>
+  <si>
+    <t>Cái tem</t>
+  </si>
+  <si>
+    <t>Cái vali</t>
+  </si>
+  <si>
+    <t>Bạch kê là gà lông trắng, huỳnh kê là gà lông vàng. Vậy ô kê là gì?</t>
+  </si>
+  <si>
+    <t>Gà lông xám</t>
+  </si>
+  <si>
+    <t>Đồng ý</t>
+  </si>
+  <si>
+    <t>Gà lông đen</t>
+  </si>
+  <si>
+    <t>Gà lông nhiều màu</t>
+  </si>
+  <si>
+    <t>Cái gì càng kéo càng ngắn</t>
+  </si>
+  <si>
+    <t>Cái tẩu</t>
+  </si>
+  <si>
+    <t>Cái quần</t>
+  </si>
+  <si>
+    <t>Ống hút</t>
+  </si>
+  <si>
+    <t>Điếu thuốc lá</t>
+  </si>
+  <si>
+    <t>30 chia 1/3 rồi cộng thêm 15 thì bằng bao nhiêu?</t>
+  </si>
+  <si>
+    <t>Trên hang đá, dưới hang đá, giữa là con cá thờn bơn. Là cái gì?</t>
+  </si>
+  <si>
+    <t>Cái miệng</t>
+  </si>
+  <si>
+    <t>Vực sâu</t>
+  </si>
+  <si>
+    <t>Đôi mắt</t>
+  </si>
+  <si>
+    <t>Hang động lớn</t>
+  </si>
+  <si>
+    <t>Cây gì càng trông càng thấy thấp</t>
+  </si>
+  <si>
+    <t>Cây cột điện</t>
+  </si>
+  <si>
+    <t>Cây cỏ</t>
+  </si>
+  <si>
+    <t>Cây nến</t>
+  </si>
+  <si>
+    <t>Cây cau</t>
+  </si>
+  <si>
+    <t>Vua gọi hoàng hậu bằng gì?</t>
+  </si>
+  <si>
+    <t>Ái phi</t>
+  </si>
+  <si>
+    <t>Nàng</t>
+  </si>
+  <si>
+    <t>Miệng</t>
+  </si>
+  <si>
+    <t>Thái hậu</t>
+  </si>
+  <si>
+    <t>Cái gì khi dùng thì quăng đi, không dùng lại lấy lại</t>
+  </si>
+  <si>
+    <t>Có mỏ neo</t>
+  </si>
+  <si>
+    <t>Cái gì chứa nhiều nước nhất mà không ướt tí ti nào?</t>
+  </si>
+  <si>
+    <t>Bình nước</t>
+  </si>
+  <si>
+    <t>Quả dừa</t>
+  </si>
+  <si>
+    <t>Thùng phuy</t>
+  </si>
+  <si>
+    <t>Bản đồ</t>
+  </si>
+  <si>
+    <t>Người da trắng tắm biển đen thì họ sẽ bị gì?</t>
+  </si>
+  <si>
+    <t>Bị nổi</t>
+  </si>
+  <si>
+    <t>Bị ướt</t>
+  </si>
+  <si>
+    <t>Bị đen</t>
+  </si>
+  <si>
+    <t>Bị chìm</t>
+  </si>
+  <si>
+    <t>Con gì đi ngồi, đứng ngồi, nằm ngồi, ngủ cũng ngồi luôn là con gì?</t>
+  </si>
+  <si>
+    <t>Con gà</t>
+  </si>
+  <si>
+    <t>Con ếch</t>
+  </si>
+  <si>
+    <t>Con thỏ</t>
+  </si>
+  <si>
+    <t>Con chuột</t>
+  </si>
+  <si>
+    <t>Có ba quả táo trên bàn và bạn lấy đi hai quả. Hỏi bạn còn bao nhiêu quả táo?</t>
+  </si>
+  <si>
+    <t>0 quả</t>
+  </si>
+  <si>
+    <t>2 quả</t>
+  </si>
+  <si>
+    <t>1 quả</t>
+  </si>
+  <si>
+    <t>3 quả</t>
+  </si>
+  <si>
+    <t>Có 2 người bạn 1 mù 1 câm đi shopping. Câm mua cái nón thì lấy tay chỉ lên đầu và gõ gõ mấy cái, còn mù muốn mua kem đánh răng thì làm sao?</t>
+  </si>
+  <si>
+    <t>Nói: Tôi muốn mua kem đánh răng</t>
+  </si>
+  <si>
+    <t>Làm động tác đánh răng</t>
+  </si>
+  <si>
+    <t>Tháo răng gả ra chà</t>
+  </si>
+  <si>
+    <t>Chiỉ vào hộp em đánh răng</t>
+  </si>
+  <si>
+    <t>Tôi có 4 cái chân, 1 cái lưng nhưng không có cơ thể. Tôi là ai?</t>
+  </si>
+  <si>
+    <t>Con rùa</t>
+  </si>
+  <si>
+    <t>Con ngựa</t>
+  </si>
+  <si>
+    <t>Cây nến đốt càng nhiều càng ngắn. Cây gì đốt càng nhiều càng dài?</t>
+  </si>
+  <si>
+    <t>Không có cây đó</t>
+  </si>
+  <si>
+    <t>Cây chuối</t>
+  </si>
+  <si>
+    <t>Cây hương</t>
+  </si>
+  <si>
+    <t>Cây tre</t>
+  </si>
+  <si>
+    <t>Làm thế nào để có gà chín cựa</t>
+  </si>
+  <si>
+    <t>Sơn Tinh thích điều này</t>
+  </si>
+  <si>
+    <t>Luộc nguyên con gà</t>
+  </si>
+  <si>
+    <t>Lắp thêm cựa giả</t>
+  </si>
+  <si>
+    <t>Phối giống gà mới</t>
+  </si>
+  <si>
+    <t>Có 1 bà kia không biết bơi, xuống nước là bà chết. Một hôm bà đi tàu, bỗng nhiên chìm tàu, nhưng bà không chết. Tại sao(không ai cứu hết)</t>
+  </si>
+  <si>
+    <t>Bà biết lặn</t>
+  </si>
+  <si>
+    <t>Bà đi tàu ngầm</t>
+  </si>
+  <si>
+    <t>Bà là siêu nhân</t>
+  </si>
+  <si>
+    <t>Bà có áo phao</t>
+  </si>
+  <si>
+    <t>Con trai và con gái có điểm gì khác nhau</t>
+  </si>
+  <si>
+    <t>Giọng nói</t>
+  </si>
+  <si>
+    <t>Ngoại hình</t>
+  </si>
+  <si>
+    <t>Suy nghĩ</t>
+  </si>
+  <si>
+    <t>Có 2 người mặt mũi giống nhau, ngày tháng năm sinh và giờ sinh cũng giống nhau. Nhưng vì sao lại không phải sinh đôi?</t>
+  </si>
+  <si>
+    <t>Vì họ khác giới</t>
+  </si>
+  <si>
+    <t>Vì họ khác bố</t>
+  </si>
+  <si>
+    <t>Vì họ sinh 3</t>
+  </si>
+  <si>
+    <t>Viì họ khác mẹ</t>
+  </si>
+  <si>
+    <t>Có 1 người không may bị té xuống hồ sâu, quần áo đều ướt đẫm hết nhưng không thấy tóc ướt tí nào? Hỏi vì sao?</t>
+  </si>
+  <si>
+    <t>Người này mặc đồ bơi</t>
+  </si>
+  <si>
+    <t>Người này không có tóc</t>
+  </si>
+  <si>
+    <t>Người này đội mũ</t>
+  </si>
+  <si>
+    <t>Người này là ma</t>
+  </si>
+  <si>
+    <t>Tại sao có những người đi taxi nhưng sao họ lại không trả tiền?</t>
+  </si>
+  <si>
+    <t>Vì họ là người mù</t>
+  </si>
+  <si>
+    <t>Người này là giám đốc</t>
+  </si>
+  <si>
+    <t>Vì họ là tài xế</t>
+  </si>
+  <si>
+    <t>Vì họ là lãnh đạo</t>
+  </si>
+  <si>
+    <t>Có ông bố người da đen, mẹ người da trắng. Họ vừa mới sinh em bé. Hỏi em bé đó có hàm răng màu gì?</t>
+  </si>
+  <si>
+    <t>Bé bị sún răng</t>
+  </si>
+  <si>
+    <t>Răng vàng</t>
+  </si>
+  <si>
+    <t>Bé chưa mọc răng</t>
+  </si>
+  <si>
+    <t>Tất nhiên là răng trắng</t>
+  </si>
+  <si>
+    <t>Xe điện chạy với vận tốc 30km/h, gió thổi ngược lại với vận tốc 2m/s. Hỏi khói xe bay với tốc độ bao nhiêu</t>
+  </si>
+  <si>
+    <t>Xe điện không có khói</t>
+  </si>
+  <si>
+    <t>Cái gì có kích thước bằng con voi nhưng chẳng nặng gram nào cả?</t>
+  </si>
+  <si>
+    <t>Mẹ con voi</t>
+  </si>
+  <si>
+    <t>Bóng con voi</t>
+  </si>
+  <si>
+    <t>Bố con voi</t>
+  </si>
+  <si>
+    <t>Bạn có thể kể ra ba ngày liên tiếp mà không có tên là thứ hai, thứ ba, thứ tư, thứ năm, thứ sáu, thứ bảy, chủ nhật?</t>
+  </si>
+  <si>
+    <t>Thứ năm, thứ sáu, thứ 7</t>
+  </si>
+  <si>
+    <t>Không kể được</t>
+  </si>
+  <si>
+    <t>Ngày xửa, ngày xưa, ngày nay</t>
+  </si>
+  <si>
+    <t>Hôm qua, hôm nay, ngày mai</t>
+  </si>
+  <si>
+    <t>Hoa gì biết ăn, biết nói, biết hát?</t>
+  </si>
+  <si>
+    <t>Hoa loa kèn</t>
+  </si>
+  <si>
+    <t>Hoa hậu</t>
+  </si>
+  <si>
+    <t>Hoa súng</t>
+  </si>
+  <si>
+    <t>Hoa nhài</t>
+  </si>
+  <si>
+    <t>Chuột chù</t>
+  </si>
+  <si>
+    <t>Chuột cống</t>
+  </si>
+  <si>
+    <t>Chuột đồng</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Đố bạn vị nào đi bằng 2 chân</t>
+  </si>
+  <si>
+    <t>Đố bạn chuột nào đi bằng 2 chân?</t>
+  </si>
+  <si>
+    <t>Vịt cái</t>
+  </si>
+  <si>
+    <t>Vịt donald</t>
+  </si>
+  <si>
+    <t>Vịt nào chẳng đi bằng 2 chân</t>
+  </si>
+  <si>
+    <t>Vịt trời</t>
+  </si>
+  <si>
+    <t>Mỗi năm có 7 tháng 31 ngày. Đố bạn có bao nhiêu tháng có 28 ngày</t>
+  </si>
+  <si>
+    <t>Một ly thủy tinh đựng đầy nước, làm thế nào để lấy nước dưới đáy ly mà không đổ nước ra ngoài?</t>
+  </si>
+  <si>
+    <t>Gọi chủ quán</t>
+  </si>
+  <si>
+    <t>Dùng miệng</t>
+  </si>
+  <si>
+    <t>Dùng thìa</t>
+  </si>
+  <si>
+    <t>Con mèo nào cực kì sợ chuột</t>
+  </si>
+  <si>
+    <t>Mèo tam thể</t>
+  </si>
+  <si>
+    <t>Mèo con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doremon </t>
+  </si>
+  <si>
+    <t>Mèo già</t>
+  </si>
+  <si>
+    <t>Người đàn ông duy nhất trên thế giới có sữa là ai?</t>
+  </si>
+  <si>
+    <t>Tôn ngộ không</t>
+  </si>
+  <si>
+    <t>Ông táo</t>
+  </si>
+  <si>
+    <t>Ông thọ</t>
+  </si>
+  <si>
+    <t>Ông bụt</t>
   </si>
 </sst>
 </file>
@@ -666,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,6 +1429,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,6 +2646,1126 @@
         <v>4</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" t="s">
+        <v>282</v>
+      </c>
+      <c r="E66" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
+        <v>288</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>294</v>
+      </c>
+      <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74">
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <v>105</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B76" t="s">
+        <v>322</v>
+      </c>
+      <c r="C76" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" t="s">
+        <v>325</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" t="s">
+        <v>329</v>
+      </c>
+      <c r="E77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" t="s">
+        <v>345</v>
+      </c>
+      <c r="D81" t="s">
+        <v>346</v>
+      </c>
+      <c r="E81" t="s">
+        <v>347</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" t="s">
+        <v>350</v>
+      </c>
+      <c r="D82" t="s">
+        <v>351</v>
+      </c>
+      <c r="E82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B83" t="s">
+        <v>354</v>
+      </c>
+      <c r="C83" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" t="s">
+        <v>357</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>359</v>
+      </c>
+      <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" t="s">
+        <v>360</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" t="s">
+        <v>368</v>
+      </c>
+      <c r="D86" t="s">
+        <v>369</v>
+      </c>
+      <c r="E86" t="s">
+        <v>370</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" t="s">
+        <v>373</v>
+      </c>
+      <c r="D87" t="s">
+        <v>374</v>
+      </c>
+      <c r="E87" t="s">
+        <v>375</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" t="s">
+        <v>280</v>
+      </c>
+      <c r="E88" t="s">
+        <v>379</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>384</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B90" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" t="s">
+        <v>388</v>
+      </c>
+      <c r="E90" t="s">
+        <v>389</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B91" t="s">
+        <v>391</v>
+      </c>
+      <c r="C91" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" t="s">
+        <v>393</v>
+      </c>
+      <c r="E91" t="s">
+        <v>394</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" t="s">
+        <v>396</v>
+      </c>
+      <c r="C92" t="s">
+        <v>397</v>
+      </c>
+      <c r="D92" t="s">
+        <v>398</v>
+      </c>
+      <c r="E92" t="s">
+        <v>399</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>25</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" t="s">
+        <v>404</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>405</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" t="s">
+        <v>407</v>
+      </c>
+      <c r="C95" t="s">
+        <v>408</v>
+      </c>
+      <c r="D95" t="s">
+        <v>409</v>
+      </c>
+      <c r="E95" t="s">
+        <v>410</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
+        <v>413</v>
+      </c>
+      <c r="D96" t="s">
+        <v>414</v>
+      </c>
+      <c r="E96" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B97" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" t="s">
+        <v>417</v>
+      </c>
+      <c r="D97" t="s">
+        <v>418</v>
+      </c>
+      <c r="E97" t="s">
+        <v>419</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" t="s">
+        <v>424</v>
+      </c>
+      <c r="E98" t="s">
+        <v>425</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B100" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" t="s">
+        <v>429</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" t="s">
+        <v>430</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C101" t="s">
+        <v>433</v>
+      </c>
+      <c r="D101" t="s">
+        <v>434</v>
+      </c>
+      <c r="E101" t="s">
+        <v>435</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B102" t="s">
+        <v>437</v>
+      </c>
+      <c r="C102" t="s">
+        <v>438</v>
+      </c>
+      <c r="D102" t="s">
+        <v>439</v>
+      </c>
+      <c r="E102" t="s">
+        <v>440</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
